--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FK Robstav</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.55</v>
+        <v>1.82</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.73</v>
+        <v>1.6</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.63</v>
+        <v>4.07</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>3.41</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>4.64</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.82</v>
+        <v>2.55</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.6</v>
+        <v>2.73</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.07</v>
+        <v>3.63</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.41</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.64</v>
+        <v>2.26</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:11</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.18</v>
+        <v>10.32</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.67</v>
+        <v>11.28</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.21</v>
+        <v>14.28</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>2.18</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.1</v>
+        <v>2.55</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:11</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>9.029999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>10.32</v>
+        <v>4.18</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>11.28</v>
+        <v>2.67</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>14.28</v>
+        <v>2.21</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.98</v>
+        <v>3.36</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 15:03</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.36</v>
+        <v>3.98</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 15:03</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.26</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.92</v>
+        <v>5.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.61</v>
+        <v>7.12</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>2.26</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.09</v>
+        <v>3.85</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.43</v>
+        <v>3.92</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.12</v>
+        <v>2.61</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>FK Robstav</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.4</v>
+        <v>4.39</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.69</v>
+        <v>4.43</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.47</v>
+        <v>3.77</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>4.39</v>
+        <v>3.4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.43</v>
+        <v>3.69</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.77</v>
+        <v>2.47</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Domazlice</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>3.17</v>
+        <v>1.56</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5.08</v>
+        <v>1.47</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:11</t>
+          <t>17/09/2023 10:05</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.75</v>
+        <v>4.16</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.43</v>
+        <v>4.59</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:11</t>
+          <t>17/09/2023 10:06</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.86</v>
+        <v>4.01</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.51</v>
+        <v>5.3</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>17/09/2023 10:10</t>
+          <t>17/09/2023 10:05</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-domazlice/WENHYa4p/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-pisek/MulYtOd4/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Domazlice</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.56</v>
+        <v>3.17</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.47</v>
+        <v>5.08</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17/09/2023 10:05</t>
+          <t>17/09/2023 10:11</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.16</v>
+        <v>3.75</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.59</v>
+        <v>4.43</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>17/09/2023 10:06</t>
+          <t>17/09/2023 10:11</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.01</v>
+        <v>1.86</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.3</v>
+        <v>1.51</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>17/09/2023 10:05</t>
+          <t>17/09/2023 10:10</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-pisek/MulYtOd4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/dukla-prague-domazlice/WENHYa4p/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,282 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/povltavska-fa-kraluv-dvur/I7ssu2RG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45192.42708333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Povltavska FA</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:06</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:06</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:06</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/loko-vltavin-povltavska-fa/A5MLXJJj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45192.4375</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Ceske Budejovice B</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Pisek</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:21</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:21</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:21</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-pisek/QX6KhLeG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45192.4375</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kraluv Dvur</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FK Robstav</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:26</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:26</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>21/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>23/09/2023 10:26</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-fk-robstav/I73CfsR3/</t>
         </is>
       </c>
     </row>

--- a/2023/czech-republic_cfl-group-a_2023-2024.xlsx
+++ b/2023/czech-republic_cfl-group-a_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Motorlet Prague</t>
+          <t>Pisek</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Karlovy Vary</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.82</v>
+        <v>2.55</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.6</v>
+        <v>2.73</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.07</v>
+        <v>3.63</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.41</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.64</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pisek</t>
+          <t>Motorlet Prague</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FK Robstav</t>
+          <t>Karlovy Vary</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.55</v>
+        <v>1.82</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.73</v>
+        <v>1.6</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.63</v>
+        <v>4.07</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>3.41</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.26</v>
+        <v>4.64</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/pisek-fk-robstav/K0c71ewe/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/motorlet-prague-karlovy-vary/2PnC0Fh1/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Plzen B</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.12</v>
+        <v>2.18</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.1</v>
+        <v>2.55</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:11</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.029999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>10.32</v>
+        <v>4.18</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>11.28</v>
+        <v>2.67</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>12/08/2023 23:42</t>
+          <t>11/08/2023 22:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>14.28</v>
+        <v>2.21</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:06</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Plzen B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.55</v>
+        <v>1.1</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:11</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.18</v>
+        <v>10.32</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.67</v>
+        <v>11.28</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>11/08/2023 22:42</t>
+          <t>12/08/2023 23:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.21</v>
+        <v>14.28</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:06</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-plzen/WzDX7c0R/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-kraluv-dvur/tAb32yOl/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.34</v>
+        <v>2.25</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.36</v>
+        <v>3.98</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 15:03</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:20</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>12/08/2023 16:04</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.98</v>
+        <v>3.36</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 15:03</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>13/08/2023 10:20</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>12/08/2023 16:04</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-povltavska-fa/tnKKAaG8/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-admira-prague/z9JO9JVE/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Slavia Prague B</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Povltavska FA</t>
+          <t>Dukla Prague B</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>2.26</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>5.29</v>
+        <v>4.4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>6.85</v>
+        <v>3.85</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.38</v>
+        <v>3.92</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>27/08/2023 02:12</t>
+          <t>25/08/2023 22:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.22</v>
+        <v>2.61</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>27/08/2023 10:14</t>
+          <t>27/08/2023 10:10</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Admira Prague</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Povltavska FA</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.55</v>
+        <v>5.29</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>5.09</v>
+        <v>6.85</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.43</v>
+        <v>6.38</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>25/08/2023 22:42</t>
+          <t>27/08/2023 02:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.12</v>
+        <v>10.22</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>27/08/2023 09:43</t>
+          <t>27/08/2023 10:14</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-povltavska-fa/G0jEGRra/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bohemians 1905 B</t>
+          <t>Admira Prague</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.26</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.85</v>
+        <v>5.09</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.92</v>
+        <v>5.43</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.61</v>
+        <v>7.12</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>27/08/2023 10:10</t>
+          <t>27/08/2023 09:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/bohemians-1905-dukla-prague/ja8uydUD/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-kraluv-dvur/dbzDImEn/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kraluv Dvur</t>
+          <t>Ceske Budejovice B</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Vltavin</t>
+          <t>Bohemians 1905 B</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.79</v>
+        <v>2.23</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.18</v>
+        <v>3.66</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.79</v>
+        <v>3.94</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/09/2023 10:21</t>
+          <t>09/09/2023 10:20</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ceske Budejovice B</t>
+          <t>Kraluv Dvur</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Vltavin</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Bohemians 1905 B</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.23</v>
+        <v>2.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.66</v>
+        <v>3.18</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.94</v>
+        <v>3.79</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 10:20</t>
+          <t>09/09/2023 10:21</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/ceske-budejovice-bohemians-1905/Wd6CPMRT/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-loko-vltavin/2HEeT4S4/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Taborsko akademie</t>
+          <t>Hostoun</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dukla Prague B</t>
+          <t>FK Robstav</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.85</v>
+        <v>2.44</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.39</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.43</v>
+        <v>3.69</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.77</v>
+        <v>2.47</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>09/09/2023 05:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10/09/2023 16:52</t>
+          <t>10/09/2023 16:43</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Hostoun</t>
+          <t>Taborsko akademie</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>FK Robstav</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.85</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.4</v>
+        <v>4.39</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.69</v>
+        <v>4.43</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.47</v>
+        <v>3.77</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>09/09/2023 05:12</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10/09/2023 16:43</t>
+          <t>10/09/2023 16:52</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-fk-robstav/t8DaSOsB/</t>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-dukla-prague/8fFiUpDb/</t>
         </is>
       </c>
     </row>
@@ -5974,6 +5974,466 @@
       <c r="V60" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/kraluv-dvur-fk-robstav/I73CfsR3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45192.6875</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Domazlice</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Motorlet Prague</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:26</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/domazlice-motorlet-prague/db2Gg1tA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45193.42708333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Admira Prague</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Plzen B</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>24/09/2023 08:16</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>24/09/2023 08:18</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>24/09/2023 08:16</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/admira-prague-plzen/4O5OiuBM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45193.42708333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Slavia Prague B</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Dukla Prague B</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>24/09/2023 09:25</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>24/09/2023 09:30</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>24/09/2023 09:30</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/slavia-prague-dukla-prague/nmeTjaQS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45193.4375</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Taborsko akademie</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bohemians 1905 B</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:13</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:13</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:13</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/taborsko-akademie-bohemians-1905/O8A3d3di/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>czech-republic</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>cfl-group-a</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45193.64583333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Hostoun</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Karlovy Vary</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>23/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/czech-republic/cfl-group-a/hostoun-karlovy-vary/zqE7eNBc/</t>
         </is>
       </c>
     </row>
